--- a/Lst_Sat.xlsx
+++ b/Lst_Sat.xlsx
@@ -12,7 +12,8 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="9165" windowHeight="6480"/>
   </bookViews>
   <sheets>
-    <sheet name="Sat11" sheetId="1" r:id="rId1"/>
+    <sheet name="Sat0" sheetId="2" r:id="rId1"/>
+    <sheet name="Sat11" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="1">
   <si>
     <t>X</t>
   </si>
@@ -347,9 +348,2260 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BO139"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="O74" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="AK74" sqref="AK74"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="3.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="3.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="8" width="3.7109375" style="1" customWidth="1"/>
+    <col min="9" max="25" width="3.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="45" width="3" style="1" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="3" style="1" customWidth="1"/>
+    <col min="47" max="67" width="3" style="1" bestFit="1" customWidth="1"/>
+    <col min="68" max="16384" width="3.85546875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="C1" s="1">
+        <v>-32</v>
+      </c>
+      <c r="D1" s="1">
+        <v>-31</v>
+      </c>
+      <c r="E1" s="1">
+        <v>-30</v>
+      </c>
+      <c r="F1" s="1">
+        <v>-29</v>
+      </c>
+      <c r="G1" s="1">
+        <v>-28</v>
+      </c>
+      <c r="H1" s="1">
+        <v>-27</v>
+      </c>
+      <c r="I1" s="1">
+        <v>-26</v>
+      </c>
+      <c r="J1" s="1">
+        <v>-25</v>
+      </c>
+      <c r="K1" s="1">
+        <v>-24</v>
+      </c>
+      <c r="L1" s="1">
+        <v>-23</v>
+      </c>
+      <c r="M1" s="1">
+        <v>-22</v>
+      </c>
+      <c r="N1" s="1">
+        <v>-21</v>
+      </c>
+      <c r="O1" s="1">
+        <v>-20</v>
+      </c>
+      <c r="P1" s="1">
+        <v>-19</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>-18</v>
+      </c>
+      <c r="R1" s="1">
+        <v>-17</v>
+      </c>
+      <c r="S1" s="1">
+        <v>-16</v>
+      </c>
+      <c r="T1" s="1">
+        <v>-15</v>
+      </c>
+      <c r="U1" s="1">
+        <v>-14</v>
+      </c>
+      <c r="V1" s="1">
+        <v>-13</v>
+      </c>
+      <c r="W1" s="1">
+        <v>-12</v>
+      </c>
+      <c r="X1" s="1">
+        <v>-11</v>
+      </c>
+      <c r="Y1" s="1">
+        <v>-10</v>
+      </c>
+      <c r="Z1" s="1">
+        <v>-9</v>
+      </c>
+      <c r="AA1" s="1">
+        <v>-8</v>
+      </c>
+      <c r="AB1" s="1">
+        <v>-7</v>
+      </c>
+      <c r="AC1" s="1">
+        <v>-6</v>
+      </c>
+      <c r="AD1" s="1">
+        <v>-5</v>
+      </c>
+      <c r="AE1" s="1">
+        <v>-4</v>
+      </c>
+      <c r="AF1" s="1">
+        <v>-3</v>
+      </c>
+      <c r="AG1" s="1">
+        <v>-2</v>
+      </c>
+      <c r="AH1" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AI1" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ1" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK1" s="1">
+        <v>2</v>
+      </c>
+      <c r="AL1" s="1">
+        <v>3</v>
+      </c>
+      <c r="AM1" s="1">
+        <v>4</v>
+      </c>
+      <c r="AN1" s="1">
+        <v>5</v>
+      </c>
+      <c r="AO1" s="1">
+        <v>6</v>
+      </c>
+      <c r="AP1" s="1">
+        <v>7</v>
+      </c>
+      <c r="AQ1" s="1">
+        <v>8</v>
+      </c>
+      <c r="AR1" s="1">
+        <v>9</v>
+      </c>
+      <c r="AS1" s="1">
+        <v>10</v>
+      </c>
+      <c r="AT1" s="1">
+        <v>11</v>
+      </c>
+      <c r="AU1" s="1">
+        <v>12</v>
+      </c>
+      <c r="AV1" s="1">
+        <v>13</v>
+      </c>
+      <c r="AW1" s="1">
+        <v>14</v>
+      </c>
+      <c r="AX1" s="1">
+        <v>15</v>
+      </c>
+      <c r="AY1" s="1">
+        <v>16</v>
+      </c>
+      <c r="AZ1" s="1">
+        <v>17</v>
+      </c>
+      <c r="BA1" s="1">
+        <v>18</v>
+      </c>
+      <c r="BB1" s="1">
+        <v>19</v>
+      </c>
+      <c r="BC1" s="1">
+        <v>20</v>
+      </c>
+      <c r="BD1" s="1">
+        <v>21</v>
+      </c>
+      <c r="BE1" s="1">
+        <v>22</v>
+      </c>
+      <c r="BF1" s="1">
+        <v>23</v>
+      </c>
+      <c r="BG1" s="1">
+        <v>24</v>
+      </c>
+      <c r="BH1" s="1">
+        <v>25</v>
+      </c>
+      <c r="BI1" s="1">
+        <v>26</v>
+      </c>
+      <c r="BJ1" s="1">
+        <v>27</v>
+      </c>
+      <c r="BK1" s="1">
+        <v>28</v>
+      </c>
+      <c r="BL1" s="1">
+        <v>29</v>
+      </c>
+      <c r="BM1" s="1">
+        <v>30</v>
+      </c>
+      <c r="BN1" s="1">
+        <v>31</v>
+      </c>
+      <c r="BO1" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1">
+        <v>2</v>
+      </c>
+      <c r="F2" s="1">
+        <v>3</v>
+      </c>
+      <c r="G2" s="1">
+        <v>4</v>
+      </c>
+      <c r="H2" s="1">
+        <v>5</v>
+      </c>
+      <c r="I2" s="1">
+        <v>6</v>
+      </c>
+      <c r="J2" s="1">
+        <v>7</v>
+      </c>
+      <c r="K2" s="1">
+        <v>8</v>
+      </c>
+      <c r="L2" s="1">
+        <v>9</v>
+      </c>
+      <c r="M2" s="1">
+        <v>10</v>
+      </c>
+      <c r="N2" s="1">
+        <v>11</v>
+      </c>
+      <c r="O2" s="1">
+        <v>12</v>
+      </c>
+      <c r="P2" s="1">
+        <v>13</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>14</v>
+      </c>
+      <c r="R2" s="1">
+        <v>15</v>
+      </c>
+      <c r="S2" s="1">
+        <v>16</v>
+      </c>
+      <c r="T2" s="1">
+        <v>17</v>
+      </c>
+      <c r="U2" s="1">
+        <v>18</v>
+      </c>
+      <c r="V2" s="1">
+        <v>19</v>
+      </c>
+      <c r="W2" s="1">
+        <v>20</v>
+      </c>
+      <c r="X2" s="1">
+        <v>21</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>22</v>
+      </c>
+      <c r="Z2" s="1">
+        <v>23</v>
+      </c>
+      <c r="AA2" s="1">
+        <v>24</v>
+      </c>
+      <c r="AB2" s="1">
+        <v>25</v>
+      </c>
+      <c r="AC2" s="1">
+        <v>26</v>
+      </c>
+      <c r="AD2" s="1">
+        <v>27</v>
+      </c>
+      <c r="AE2" s="1">
+        <v>28</v>
+      </c>
+      <c r="AF2" s="1">
+        <v>29</v>
+      </c>
+      <c r="AG2" s="1">
+        <v>30</v>
+      </c>
+      <c r="AH2" s="1">
+        <v>31</v>
+      </c>
+      <c r="AI2" s="1">
+        <v>32</v>
+      </c>
+      <c r="AJ2" s="1">
+        <v>33</v>
+      </c>
+      <c r="AK2" s="1">
+        <v>34</v>
+      </c>
+      <c r="AL2" s="1">
+        <v>35</v>
+      </c>
+      <c r="AM2" s="1">
+        <v>36</v>
+      </c>
+      <c r="AN2" s="1">
+        <v>37</v>
+      </c>
+      <c r="AO2" s="1">
+        <v>38</v>
+      </c>
+      <c r="AP2" s="1">
+        <v>39</v>
+      </c>
+      <c r="AQ2" s="1">
+        <v>40</v>
+      </c>
+      <c r="AR2" s="1">
+        <v>41</v>
+      </c>
+      <c r="AS2" s="1">
+        <v>42</v>
+      </c>
+      <c r="AT2" s="1">
+        <v>43</v>
+      </c>
+      <c r="AU2" s="1">
+        <v>44</v>
+      </c>
+      <c r="AV2" s="1">
+        <v>45</v>
+      </c>
+      <c r="AW2" s="1">
+        <v>46</v>
+      </c>
+      <c r="AX2" s="1">
+        <v>47</v>
+      </c>
+      <c r="AY2" s="1">
+        <v>48</v>
+      </c>
+      <c r="AZ2" s="1">
+        <v>49</v>
+      </c>
+      <c r="BA2" s="1">
+        <v>50</v>
+      </c>
+      <c r="BB2" s="1">
+        <v>51</v>
+      </c>
+      <c r="BC2" s="1">
+        <v>52</v>
+      </c>
+      <c r="BD2" s="1">
+        <v>53</v>
+      </c>
+      <c r="BE2" s="1">
+        <v>54</v>
+      </c>
+      <c r="BF2" s="1">
+        <v>55</v>
+      </c>
+      <c r="BG2" s="1">
+        <v>56</v>
+      </c>
+      <c r="BH2" s="1">
+        <v>57</v>
+      </c>
+      <c r="BI2" s="1">
+        <v>58</v>
+      </c>
+      <c r="BJ2" s="1">
+        <v>59</v>
+      </c>
+      <c r="BK2" s="1">
+        <v>60</v>
+      </c>
+      <c r="BL2" s="1">
+        <v>61</v>
+      </c>
+      <c r="BM2" s="1">
+        <v>62</v>
+      </c>
+      <c r="BN2" s="1">
+        <v>63</v>
+      </c>
+      <c r="BO2" s="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>-32</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK3" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>-31</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AV4" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>-30</v>
+      </c>
+      <c r="B5" s="1">
+        <v>2</v>
+      </c>
+      <c r="BG5" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>-29</v>
+      </c>
+      <c r="B6" s="1">
+        <v>3</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BK6" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>-28</v>
+      </c>
+      <c r="B7" s="1">
+        <v>4</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BL7" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>-27</v>
+      </c>
+      <c r="B8" s="1">
+        <v>5</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>-26</v>
+      </c>
+      <c r="B9" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>-25</v>
+      </c>
+      <c r="B10" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>-24</v>
+      </c>
+      <c r="B11" s="1">
+        <v>8</v>
+      </c>
+      <c r="AL11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AW11" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>-23</v>
+      </c>
+      <c r="B12" s="1">
+        <v>9</v>
+      </c>
+      <c r="AP12" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>-22</v>
+      </c>
+      <c r="B13" s="1">
+        <v>10</v>
+      </c>
+      <c r="AS13" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>-21</v>
+      </c>
+      <c r="B14" s="1">
+        <v>11</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>-20</v>
+      </c>
+      <c r="B15" s="1">
+        <v>12</v>
+      </c>
+      <c r="X15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BI15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BL15" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>-19</v>
+      </c>
+      <c r="B16" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>-18</v>
+      </c>
+      <c r="B17" s="1">
+        <v>14</v>
+      </c>
+      <c r="W17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BJ17" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>-17</v>
+      </c>
+      <c r="B18" s="1">
+        <v>15</v>
+      </c>
+      <c r="AF18" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>-16</v>
+      </c>
+      <c r="B19" s="1">
+        <v>16</v>
+      </c>
+      <c r="W19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BE19" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>-15</v>
+      </c>
+      <c r="B20" s="1">
+        <v>17</v>
+      </c>
+      <c r="AF20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AV20" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>-14</v>
+      </c>
+      <c r="B21" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>-13</v>
+      </c>
+      <c r="B22" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>-12</v>
+      </c>
+      <c r="B23" s="1">
+        <v>20</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>-11</v>
+      </c>
+      <c r="B24" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>-10</v>
+      </c>
+      <c r="B25" s="1">
+        <v>22</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>-9</v>
+      </c>
+      <c r="B26" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>-8</v>
+      </c>
+      <c r="B27" s="1">
+        <v>24</v>
+      </c>
+      <c r="AL27" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>-7</v>
+      </c>
+      <c r="B28" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>-6</v>
+      </c>
+      <c r="B29" s="1">
+        <v>26</v>
+      </c>
+      <c r="AW29" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>-5</v>
+      </c>
+      <c r="B30" s="1">
+        <v>27</v>
+      </c>
+      <c r="BA30" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>-4</v>
+      </c>
+      <c r="B31" s="1">
+        <v>28</v>
+      </c>
+      <c r="AZ31" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>-3</v>
+      </c>
+      <c r="B32" s="1">
+        <v>29</v>
+      </c>
+      <c r="AE32" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>-2</v>
+      </c>
+      <c r="B33" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>-1</v>
+      </c>
+      <c r="B34" s="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>0</v>
+      </c>
+      <c r="B35" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>1</v>
+      </c>
+      <c r="B36" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="37" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>2</v>
+      </c>
+      <c r="B37" s="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="38" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>3</v>
+      </c>
+      <c r="B38" s="1">
+        <v>35</v>
+      </c>
+      <c r="AM38" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>4</v>
+      </c>
+      <c r="B39" s="1">
+        <v>36</v>
+      </c>
+      <c r="R39" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>5</v>
+      </c>
+      <c r="B40" s="1">
+        <v>37</v>
+      </c>
+      <c r="Q40" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>6</v>
+      </c>
+      <c r="B41" s="1">
+        <v>38</v>
+      </c>
+      <c r="U41" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>7</v>
+      </c>
+      <c r="B42" s="1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="43" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>8</v>
+      </c>
+      <c r="B43" s="1">
+        <v>40</v>
+      </c>
+      <c r="AF43" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>9</v>
+      </c>
+      <c r="B44" s="1">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="45" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>10</v>
+      </c>
+      <c r="B45" s="1">
+        <v>42</v>
+      </c>
+      <c r="BE45" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>11</v>
+      </c>
+      <c r="B46" s="1">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="47" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>12</v>
+      </c>
+      <c r="B47" s="1">
+        <v>44</v>
+      </c>
+      <c r="BI47" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>13</v>
+      </c>
+      <c r="B48" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="49" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>14</v>
+      </c>
+      <c r="B49" s="1">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="50" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>15</v>
+      </c>
+      <c r="B50" s="1">
+        <v>47</v>
+      </c>
+      <c r="V50" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE50" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL50" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>16</v>
+      </c>
+      <c r="B51" s="1">
+        <v>48</v>
+      </c>
+      <c r="M51" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AU51" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>17</v>
+      </c>
+      <c r="B52" s="1">
+        <v>49</v>
+      </c>
+      <c r="AL52" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>18</v>
+      </c>
+      <c r="B53" s="1">
+        <v>50</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AU53" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>19</v>
+      </c>
+      <c r="B54" s="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="55" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>20</v>
+      </c>
+      <c r="B55" s="1">
+        <v>52</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AT55" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>21</v>
+      </c>
+      <c r="B56" s="1">
+        <v>53</v>
+      </c>
+      <c r="BF56" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>22</v>
+      </c>
+      <c r="B57" s="1">
+        <v>54</v>
+      </c>
+      <c r="Y57" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>23</v>
+      </c>
+      <c r="B58" s="1">
+        <v>55</v>
+      </c>
+      <c r="AB58" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>24</v>
+      </c>
+      <c r="B59" s="1">
+        <v>56</v>
+      </c>
+      <c r="U59" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF59" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>25</v>
+      </c>
+      <c r="B60" s="1">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="61" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>26</v>
+      </c>
+      <c r="B61" s="1">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="62" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>27</v>
+      </c>
+      <c r="B62" s="1">
+        <v>59</v>
+      </c>
+      <c r="AZ62" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>28</v>
+      </c>
+      <c r="B63" s="1">
+        <v>60</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BC63" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>29</v>
+      </c>
+      <c r="B64" s="1">
+        <v>61</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BD64" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>30</v>
+      </c>
+      <c r="B65" s="1">
+        <v>62</v>
+      </c>
+      <c r="K65" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>31</v>
+      </c>
+      <c r="B66" s="1">
+        <v>63</v>
+      </c>
+      <c r="V66" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG66" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BF66" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>32</v>
+      </c>
+      <c r="B67" s="1">
+        <v>64</v>
+      </c>
+      <c r="AG67" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="C73" s="1">
+        <v>-32</v>
+      </c>
+      <c r="D73" s="1">
+        <v>-31</v>
+      </c>
+      <c r="E73" s="1">
+        <v>-30</v>
+      </c>
+      <c r="F73" s="1">
+        <v>-29</v>
+      </c>
+      <c r="G73" s="1">
+        <v>-28</v>
+      </c>
+      <c r="H73" s="1">
+        <v>-27</v>
+      </c>
+      <c r="I73" s="1">
+        <v>-26</v>
+      </c>
+      <c r="J73" s="1">
+        <v>-25</v>
+      </c>
+      <c r="K73" s="1">
+        <v>-24</v>
+      </c>
+      <c r="L73" s="1">
+        <v>-23</v>
+      </c>
+      <c r="M73" s="1">
+        <v>-22</v>
+      </c>
+      <c r="N73" s="1">
+        <v>-21</v>
+      </c>
+      <c r="O73" s="1">
+        <v>-20</v>
+      </c>
+      <c r="P73" s="1">
+        <v>-19</v>
+      </c>
+      <c r="Q73" s="1">
+        <v>-18</v>
+      </c>
+      <c r="R73" s="1">
+        <v>-17</v>
+      </c>
+      <c r="S73" s="1">
+        <v>-16</v>
+      </c>
+      <c r="T73" s="1">
+        <v>-15</v>
+      </c>
+      <c r="U73" s="1">
+        <v>-14</v>
+      </c>
+      <c r="V73" s="1">
+        <v>-13</v>
+      </c>
+      <c r="W73" s="1">
+        <v>-12</v>
+      </c>
+      <c r="X73" s="1">
+        <v>-11</v>
+      </c>
+      <c r="Y73" s="1">
+        <v>-10</v>
+      </c>
+      <c r="Z73" s="1">
+        <v>-9</v>
+      </c>
+      <c r="AA73" s="1">
+        <v>-8</v>
+      </c>
+      <c r="AB73" s="1">
+        <v>-7</v>
+      </c>
+      <c r="AC73" s="1">
+        <v>-6</v>
+      </c>
+      <c r="AD73" s="1">
+        <v>-5</v>
+      </c>
+      <c r="AE73" s="1">
+        <v>-4</v>
+      </c>
+      <c r="AF73" s="1">
+        <v>-3</v>
+      </c>
+      <c r="AG73" s="1">
+        <v>-2</v>
+      </c>
+      <c r="AH73" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AI73" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ73" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK73" s="1">
+        <v>2</v>
+      </c>
+      <c r="AL73" s="1">
+        <v>3</v>
+      </c>
+      <c r="AM73" s="1">
+        <v>4</v>
+      </c>
+      <c r="AN73" s="1">
+        <v>5</v>
+      </c>
+      <c r="AO73" s="1">
+        <v>6</v>
+      </c>
+      <c r="AP73" s="1">
+        <v>7</v>
+      </c>
+      <c r="AQ73" s="1">
+        <v>8</v>
+      </c>
+      <c r="AR73" s="1">
+        <v>9</v>
+      </c>
+      <c r="AS73" s="1">
+        <v>10</v>
+      </c>
+      <c r="AT73" s="1">
+        <v>11</v>
+      </c>
+      <c r="AU73" s="1">
+        <v>12</v>
+      </c>
+      <c r="AV73" s="1">
+        <v>13</v>
+      </c>
+      <c r="AW73" s="1">
+        <v>14</v>
+      </c>
+      <c r="AX73" s="1">
+        <v>15</v>
+      </c>
+      <c r="AY73" s="1">
+        <v>16</v>
+      </c>
+      <c r="AZ73" s="1">
+        <v>17</v>
+      </c>
+      <c r="BA73" s="1">
+        <v>18</v>
+      </c>
+      <c r="BB73" s="1">
+        <v>19</v>
+      </c>
+      <c r="BC73" s="1">
+        <v>20</v>
+      </c>
+      <c r="BD73" s="1">
+        <v>21</v>
+      </c>
+      <c r="BE73" s="1">
+        <v>22</v>
+      </c>
+      <c r="BF73" s="1">
+        <v>23</v>
+      </c>
+      <c r="BG73" s="1">
+        <v>24</v>
+      </c>
+      <c r="BH73" s="1">
+        <v>25</v>
+      </c>
+      <c r="BI73" s="1">
+        <v>26</v>
+      </c>
+      <c r="BJ73" s="1">
+        <v>27</v>
+      </c>
+      <c r="BK73" s="1">
+        <v>28</v>
+      </c>
+      <c r="BL73" s="1">
+        <v>29</v>
+      </c>
+      <c r="BM73" s="1">
+        <v>30</v>
+      </c>
+      <c r="BN73" s="1">
+        <v>31</v>
+      </c>
+      <c r="BO73" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="74" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="C74" s="1">
+        <v>0</v>
+      </c>
+      <c r="D74" s="1">
+        <v>1</v>
+      </c>
+      <c r="E74" s="1">
+        <v>2</v>
+      </c>
+      <c r="F74" s="1">
+        <v>3</v>
+      </c>
+      <c r="G74" s="1">
+        <v>4</v>
+      </c>
+      <c r="H74" s="1">
+        <v>5</v>
+      </c>
+      <c r="I74" s="1">
+        <v>6</v>
+      </c>
+      <c r="J74" s="1">
+        <v>7</v>
+      </c>
+      <c r="K74" s="1">
+        <v>8</v>
+      </c>
+      <c r="L74" s="1">
+        <v>9</v>
+      </c>
+      <c r="M74" s="1">
+        <v>10</v>
+      </c>
+      <c r="N74" s="1">
+        <v>11</v>
+      </c>
+      <c r="O74" s="1">
+        <v>12</v>
+      </c>
+      <c r="P74" s="1">
+        <v>13</v>
+      </c>
+      <c r="Q74" s="1">
+        <v>14</v>
+      </c>
+      <c r="R74" s="1">
+        <v>15</v>
+      </c>
+      <c r="S74" s="1">
+        <v>16</v>
+      </c>
+      <c r="T74" s="1">
+        <v>17</v>
+      </c>
+      <c r="U74" s="1">
+        <v>18</v>
+      </c>
+      <c r="V74" s="1">
+        <v>19</v>
+      </c>
+      <c r="W74" s="1">
+        <v>20</v>
+      </c>
+      <c r="X74" s="1">
+        <v>21</v>
+      </c>
+      <c r="Y74" s="1">
+        <v>22</v>
+      </c>
+      <c r="Z74" s="1">
+        <v>23</v>
+      </c>
+      <c r="AA74" s="1">
+        <v>24</v>
+      </c>
+      <c r="AB74" s="1">
+        <v>25</v>
+      </c>
+      <c r="AC74" s="1">
+        <v>26</v>
+      </c>
+      <c r="AD74" s="1">
+        <v>27</v>
+      </c>
+      <c r="AE74" s="1">
+        <v>28</v>
+      </c>
+      <c r="AF74" s="1">
+        <v>29</v>
+      </c>
+      <c r="AG74" s="1">
+        <v>30</v>
+      </c>
+      <c r="AH74" s="1">
+        <v>31</v>
+      </c>
+      <c r="AI74" s="1">
+        <v>32</v>
+      </c>
+      <c r="AJ74" s="1">
+        <v>33</v>
+      </c>
+      <c r="AK74" s="1">
+        <v>34</v>
+      </c>
+      <c r="AL74" s="1">
+        <v>35</v>
+      </c>
+      <c r="AM74" s="1">
+        <v>36</v>
+      </c>
+      <c r="AN74" s="1">
+        <v>37</v>
+      </c>
+      <c r="AO74" s="1">
+        <v>38</v>
+      </c>
+      <c r="AP74" s="1">
+        <v>39</v>
+      </c>
+      <c r="AQ74" s="1">
+        <v>40</v>
+      </c>
+      <c r="AR74" s="1">
+        <v>41</v>
+      </c>
+      <c r="AS74" s="1">
+        <v>42</v>
+      </c>
+      <c r="AT74" s="1">
+        <v>43</v>
+      </c>
+      <c r="AU74" s="1">
+        <v>44</v>
+      </c>
+      <c r="AV74" s="1">
+        <v>45</v>
+      </c>
+      <c r="AW74" s="1">
+        <v>46</v>
+      </c>
+      <c r="AX74" s="1">
+        <v>47</v>
+      </c>
+      <c r="AY74" s="1">
+        <v>48</v>
+      </c>
+      <c r="AZ74" s="1">
+        <v>49</v>
+      </c>
+      <c r="BA74" s="1">
+        <v>50</v>
+      </c>
+      <c r="BB74" s="1">
+        <v>51</v>
+      </c>
+      <c r="BC74" s="1">
+        <v>52</v>
+      </c>
+      <c r="BD74" s="1">
+        <v>53</v>
+      </c>
+      <c r="BE74" s="1">
+        <v>54</v>
+      </c>
+      <c r="BF74" s="1">
+        <v>55</v>
+      </c>
+      <c r="BG74" s="1">
+        <v>56</v>
+      </c>
+      <c r="BH74" s="1">
+        <v>57</v>
+      </c>
+      <c r="BI74" s="1">
+        <v>58</v>
+      </c>
+      <c r="BJ74" s="1">
+        <v>59</v>
+      </c>
+      <c r="BK74" s="1">
+        <v>60</v>
+      </c>
+      <c r="BL74" s="1">
+        <v>61</v>
+      </c>
+      <c r="BM74" s="1">
+        <v>62</v>
+      </c>
+      <c r="BN74" s="1">
+        <v>63</v>
+      </c>
+      <c r="BO74" s="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="75" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <v>-32</v>
+      </c>
+      <c r="B75" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
+        <v>-31</v>
+      </c>
+      <c r="B76" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
+        <v>-30</v>
+      </c>
+      <c r="B77" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
+        <v>-29</v>
+      </c>
+      <c r="B78" s="1">
+        <v>3</v>
+      </c>
+      <c r="BC78" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BK78" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
+        <v>-28</v>
+      </c>
+      <c r="B79" s="1">
+        <v>4</v>
+      </c>
+      <c r="BL79" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
+        <v>-27</v>
+      </c>
+      <c r="B80" s="1">
+        <v>5</v>
+      </c>
+      <c r="BA80" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
+        <v>-26</v>
+      </c>
+      <c r="B81" s="1">
+        <v>6</v>
+      </c>
+      <c r="W81" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BC81" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
+        <v>-25</v>
+      </c>
+      <c r="B82" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
+        <v>-24</v>
+      </c>
+      <c r="B83" s="1">
+        <v>8</v>
+      </c>
+      <c r="BM83" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
+        <v>-23</v>
+      </c>
+      <c r="B84" s="1">
+        <v>9</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N84" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
+        <v>-22</v>
+      </c>
+      <c r="B85" s="1">
+        <v>10</v>
+      </c>
+      <c r="Y85" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AY85" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
+        <v>-21</v>
+      </c>
+      <c r="B86" s="1">
+        <v>11</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
+        <v>-20</v>
+      </c>
+      <c r="B87" s="1">
+        <v>12</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
+        <v>-19</v>
+      </c>
+      <c r="B88" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="89" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
+        <v>-18</v>
+      </c>
+      <c r="B89" s="1">
+        <v>14</v>
+      </c>
+      <c r="AN89" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
+        <v>-17</v>
+      </c>
+      <c r="B90" s="1">
+        <v>15</v>
+      </c>
+      <c r="H90" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM90" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="A91" s="1">
+        <v>-16</v>
+      </c>
+      <c r="B91" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="92" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="A92" s="1">
+        <v>-15</v>
+      </c>
+      <c r="B92" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="93" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
+        <v>-14</v>
+      </c>
+      <c r="B93" s="1">
+        <v>18</v>
+      </c>
+      <c r="AO93" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BG93" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="A94" s="1">
+        <v>-13</v>
+      </c>
+      <c r="B94" s="1">
+        <v>19</v>
+      </c>
+      <c r="AX94" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BN94" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="A95" s="1">
+        <v>-12</v>
+      </c>
+      <c r="B95" s="1">
+        <v>20</v>
+      </c>
+      <c r="Q95" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S95" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="A96" s="1">
+        <v>-11</v>
+      </c>
+      <c r="B96" s="1">
+        <v>21</v>
+      </c>
+      <c r="O96" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="A97" s="1">
+        <v>-10</v>
+      </c>
+      <c r="B97" s="1">
+        <v>22</v>
+      </c>
+      <c r="BE97" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="A98" s="1">
+        <v>-9</v>
+      </c>
+      <c r="B98" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="99" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="A99" s="1">
+        <v>-8</v>
+      </c>
+      <c r="B99" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="100" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="A100" s="1">
+        <v>-7</v>
+      </c>
+      <c r="B100" s="1">
+        <v>25</v>
+      </c>
+      <c r="BF100" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="A101" s="1">
+        <v>-6</v>
+      </c>
+      <c r="B101" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="102" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="A102" s="1">
+        <v>-5</v>
+      </c>
+      <c r="B102" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="103" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="A103" s="1">
+        <v>-4</v>
+      </c>
+      <c r="B103" s="1">
+        <v>28</v>
+      </c>
+      <c r="AF103" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AX103" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="A104" s="1">
+        <v>-3</v>
+      </c>
+      <c r="B104" s="1">
+        <v>29</v>
+      </c>
+      <c r="R104" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T104" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AQ104" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BG104" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="A105" s="1">
+        <v>-2</v>
+      </c>
+      <c r="B105" s="1">
+        <v>30</v>
+      </c>
+      <c r="BN105" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BO105" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="A106" s="1">
+        <v>-1</v>
+      </c>
+      <c r="B106" s="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="107" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="A107" s="1">
+        <v>0</v>
+      </c>
+      <c r="B107" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="108" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="A108" s="1">
+        <v>1</v>
+      </c>
+      <c r="B108" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="109" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="A109" s="1">
+        <v>2</v>
+      </c>
+      <c r="B109" s="1">
+        <v>34</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="A110" s="1">
+        <v>3</v>
+      </c>
+      <c r="B110" s="1">
+        <v>35</v>
+      </c>
+      <c r="K110" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA110" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AX110" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AZ110" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="A111" s="1">
+        <v>4</v>
+      </c>
+      <c r="B111" s="1">
+        <v>36</v>
+      </c>
+      <c r="T111" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL111" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="A112" s="1">
+        <v>5</v>
+      </c>
+      <c r="B112" s="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="113" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A113" s="1">
+        <v>6</v>
+      </c>
+      <c r="B113" s="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="114" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A114" s="1">
+        <v>7</v>
+      </c>
+      <c r="B114" s="1">
+        <v>39</v>
+      </c>
+      <c r="L114" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A115" s="1">
+        <v>8</v>
+      </c>
+      <c r="B115" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="116" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A116" s="1">
+        <v>9</v>
+      </c>
+      <c r="B116" s="1">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="117" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A117" s="1">
+        <v>10</v>
+      </c>
+      <c r="B117" s="1">
+        <v>42</v>
+      </c>
+      <c r="M117" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A118" s="1">
+        <v>11</v>
+      </c>
+      <c r="B118" s="1">
+        <v>43</v>
+      </c>
+      <c r="BC118" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A119" s="1">
+        <v>12</v>
+      </c>
+      <c r="B119" s="1">
+        <v>44</v>
+      </c>
+      <c r="AY119" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BA119" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A120" s="1">
+        <v>13</v>
+      </c>
+      <c r="B120" s="1">
+        <v>45</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T120" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A121" s="1">
+        <v>14</v>
+      </c>
+      <c r="B121" s="1">
+        <v>46</v>
+      </c>
+      <c r="K121" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC121" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A122" s="1">
+        <v>15</v>
+      </c>
+      <c r="B122" s="1">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="123" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A123" s="1">
+        <v>16</v>
+      </c>
+      <c r="B123" s="1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="124" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A124" s="1">
+        <v>17</v>
+      </c>
+      <c r="B124" s="1">
+        <v>49</v>
+      </c>
+      <c r="AE124" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BJ124" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A125" s="1">
+        <v>18</v>
+      </c>
+      <c r="B125" s="1">
+        <v>50</v>
+      </c>
+      <c r="AD125" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A126" s="1">
+        <v>19</v>
+      </c>
+      <c r="B126" s="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="127" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A127" s="1">
+        <v>20</v>
+      </c>
+      <c r="B127" s="1">
+        <v>52</v>
+      </c>
+      <c r="BK127" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A128" s="1">
+        <v>21</v>
+      </c>
+      <c r="B128" s="1">
+        <v>53</v>
+      </c>
+      <c r="BL128" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="A129" s="1">
+        <v>22</v>
+      </c>
+      <c r="B129" s="1">
+        <v>54</v>
+      </c>
+      <c r="S129" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AS129" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="A130" s="1">
+        <v>23</v>
+      </c>
+      <c r="B130" s="1">
+        <v>55</v>
+      </c>
+      <c r="BD130" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BN130" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="A131" s="1">
+        <v>24</v>
+      </c>
+      <c r="B131" s="1">
+        <v>56</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="A132" s="1">
+        <v>25</v>
+      </c>
+      <c r="B132" s="1">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="133" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="A133" s="1">
+        <v>26</v>
+      </c>
+      <c r="B133" s="1">
+        <v>58</v>
+      </c>
+      <c r="O133" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AU133" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="A134" s="1">
+        <v>27</v>
+      </c>
+      <c r="B134" s="1">
+        <v>59</v>
+      </c>
+      <c r="Q134" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="A135" s="1">
+        <v>28</v>
+      </c>
+      <c r="B135" s="1">
+        <v>60</v>
+      </c>
+      <c r="F135" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="A136" s="1">
+        <v>29</v>
+      </c>
+      <c r="B136" s="1">
+        <v>61</v>
+      </c>
+      <c r="G136" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O136" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="A137" s="1">
+        <v>30</v>
+      </c>
+      <c r="B137" s="1">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="138" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="A138" s="1">
+        <v>31</v>
+      </c>
+      <c r="B138" s="1">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="139" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="A139" s="1">
+        <v>32</v>
+      </c>
+      <c r="B139" s="1">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BE124"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="AC107" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>

--- a/Lst_Sat.xlsx
+++ b/Lst_Sat.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9165" windowHeight="6480"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9165" windowHeight="6480" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sat0" sheetId="2" r:id="rId1"/>
-    <sheet name="Sat11" sheetId="1" r:id="rId2"/>
+    <sheet name="Sat2" sheetId="3" r:id="rId2"/>
+    <sheet name="Sat11" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="1">
   <si>
     <t>X</t>
   </si>
@@ -350,11 +351,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BO139"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="O74" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AK74" sqref="AK74"/>
+      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2598,6 +2599,2401 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BO139"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C66" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="N71" sqref="N71"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="3.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="3.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="8" width="3.7109375" style="1" customWidth="1"/>
+    <col min="9" max="25" width="3.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="45" width="3" style="1" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="3" style="1" customWidth="1"/>
+    <col min="47" max="67" width="3" style="1" bestFit="1" customWidth="1"/>
+    <col min="68" max="16384" width="3.85546875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="C1" s="1">
+        <v>-32</v>
+      </c>
+      <c r="D1" s="1">
+        <v>-31</v>
+      </c>
+      <c r="E1" s="1">
+        <v>-30</v>
+      </c>
+      <c r="F1" s="1">
+        <v>-29</v>
+      </c>
+      <c r="G1" s="1">
+        <v>-28</v>
+      </c>
+      <c r="H1" s="1">
+        <v>-27</v>
+      </c>
+      <c r="I1" s="1">
+        <v>-26</v>
+      </c>
+      <c r="J1" s="1">
+        <v>-25</v>
+      </c>
+      <c r="K1" s="1">
+        <v>-24</v>
+      </c>
+      <c r="L1" s="1">
+        <v>-23</v>
+      </c>
+      <c r="M1" s="1">
+        <v>-22</v>
+      </c>
+      <c r="N1" s="1">
+        <v>-21</v>
+      </c>
+      <c r="O1" s="1">
+        <v>-20</v>
+      </c>
+      <c r="P1" s="1">
+        <v>-19</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>-18</v>
+      </c>
+      <c r="R1" s="1">
+        <v>-17</v>
+      </c>
+      <c r="S1" s="1">
+        <v>-16</v>
+      </c>
+      <c r="T1" s="1">
+        <v>-15</v>
+      </c>
+      <c r="U1" s="1">
+        <v>-14</v>
+      </c>
+      <c r="V1" s="1">
+        <v>-13</v>
+      </c>
+      <c r="W1" s="1">
+        <v>-12</v>
+      </c>
+      <c r="X1" s="1">
+        <v>-11</v>
+      </c>
+      <c r="Y1" s="1">
+        <v>-10</v>
+      </c>
+      <c r="Z1" s="1">
+        <v>-9</v>
+      </c>
+      <c r="AA1" s="1">
+        <v>-8</v>
+      </c>
+      <c r="AB1" s="1">
+        <v>-7</v>
+      </c>
+      <c r="AC1" s="1">
+        <v>-6</v>
+      </c>
+      <c r="AD1" s="1">
+        <v>-5</v>
+      </c>
+      <c r="AE1" s="1">
+        <v>-4</v>
+      </c>
+      <c r="AF1" s="1">
+        <v>-3</v>
+      </c>
+      <c r="AG1" s="1">
+        <v>-2</v>
+      </c>
+      <c r="AH1" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AI1" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ1" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK1" s="1">
+        <v>2</v>
+      </c>
+      <c r="AL1" s="1">
+        <v>3</v>
+      </c>
+      <c r="AM1" s="1">
+        <v>4</v>
+      </c>
+      <c r="AN1" s="1">
+        <v>5</v>
+      </c>
+      <c r="AO1" s="1">
+        <v>6</v>
+      </c>
+      <c r="AP1" s="1">
+        <v>7</v>
+      </c>
+      <c r="AQ1" s="1">
+        <v>8</v>
+      </c>
+      <c r="AR1" s="1">
+        <v>9</v>
+      </c>
+      <c r="AS1" s="1">
+        <v>10</v>
+      </c>
+      <c r="AT1" s="1">
+        <v>11</v>
+      </c>
+      <c r="AU1" s="1">
+        <v>12</v>
+      </c>
+      <c r="AV1" s="1">
+        <v>13</v>
+      </c>
+      <c r="AW1" s="1">
+        <v>14</v>
+      </c>
+      <c r="AX1" s="1">
+        <v>15</v>
+      </c>
+      <c r="AY1" s="1">
+        <v>16</v>
+      </c>
+      <c r="AZ1" s="1">
+        <v>17</v>
+      </c>
+      <c r="BA1" s="1">
+        <v>18</v>
+      </c>
+      <c r="BB1" s="1">
+        <v>19</v>
+      </c>
+      <c r="BC1" s="1">
+        <v>20</v>
+      </c>
+      <c r="BD1" s="1">
+        <v>21</v>
+      </c>
+      <c r="BE1" s="1">
+        <v>22</v>
+      </c>
+      <c r="BF1" s="1">
+        <v>23</v>
+      </c>
+      <c r="BG1" s="1">
+        <v>24</v>
+      </c>
+      <c r="BH1" s="1">
+        <v>25</v>
+      </c>
+      <c r="BI1" s="1">
+        <v>26</v>
+      </c>
+      <c r="BJ1" s="1">
+        <v>27</v>
+      </c>
+      <c r="BK1" s="1">
+        <v>28</v>
+      </c>
+      <c r="BL1" s="1">
+        <v>29</v>
+      </c>
+      <c r="BM1" s="1">
+        <v>30</v>
+      </c>
+      <c r="BN1" s="1">
+        <v>31</v>
+      </c>
+      <c r="BO1" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1">
+        <v>2</v>
+      </c>
+      <c r="F2" s="1">
+        <v>3</v>
+      </c>
+      <c r="G2" s="1">
+        <v>4</v>
+      </c>
+      <c r="H2" s="1">
+        <v>5</v>
+      </c>
+      <c r="I2" s="1">
+        <v>6</v>
+      </c>
+      <c r="J2" s="1">
+        <v>7</v>
+      </c>
+      <c r="K2" s="1">
+        <v>8</v>
+      </c>
+      <c r="L2" s="1">
+        <v>9</v>
+      </c>
+      <c r="M2" s="1">
+        <v>10</v>
+      </c>
+      <c r="N2" s="1">
+        <v>11</v>
+      </c>
+      <c r="O2" s="1">
+        <v>12</v>
+      </c>
+      <c r="P2" s="1">
+        <v>13</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>14</v>
+      </c>
+      <c r="R2" s="1">
+        <v>15</v>
+      </c>
+      <c r="S2" s="1">
+        <v>16</v>
+      </c>
+      <c r="T2" s="1">
+        <v>17</v>
+      </c>
+      <c r="U2" s="1">
+        <v>18</v>
+      </c>
+      <c r="V2" s="1">
+        <v>19</v>
+      </c>
+      <c r="W2" s="1">
+        <v>20</v>
+      </c>
+      <c r="X2" s="1">
+        <v>21</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>22</v>
+      </c>
+      <c r="Z2" s="1">
+        <v>23</v>
+      </c>
+      <c r="AA2" s="1">
+        <v>24</v>
+      </c>
+      <c r="AB2" s="1">
+        <v>25</v>
+      </c>
+      <c r="AC2" s="1">
+        <v>26</v>
+      </c>
+      <c r="AD2" s="1">
+        <v>27</v>
+      </c>
+      <c r="AE2" s="1">
+        <v>28</v>
+      </c>
+      <c r="AF2" s="1">
+        <v>29</v>
+      </c>
+      <c r="AG2" s="1">
+        <v>30</v>
+      </c>
+      <c r="AH2" s="1">
+        <v>31</v>
+      </c>
+      <c r="AI2" s="1">
+        <v>32</v>
+      </c>
+      <c r="AJ2" s="1">
+        <v>33</v>
+      </c>
+      <c r="AK2" s="1">
+        <v>34</v>
+      </c>
+      <c r="AL2" s="1">
+        <v>35</v>
+      </c>
+      <c r="AM2" s="1">
+        <v>36</v>
+      </c>
+      <c r="AN2" s="1">
+        <v>37</v>
+      </c>
+      <c r="AO2" s="1">
+        <v>38</v>
+      </c>
+      <c r="AP2" s="1">
+        <v>39</v>
+      </c>
+      <c r="AQ2" s="1">
+        <v>40</v>
+      </c>
+      <c r="AR2" s="1">
+        <v>41</v>
+      </c>
+      <c r="AS2" s="1">
+        <v>42</v>
+      </c>
+      <c r="AT2" s="1">
+        <v>43</v>
+      </c>
+      <c r="AU2" s="1">
+        <v>44</v>
+      </c>
+      <c r="AV2" s="1">
+        <v>45</v>
+      </c>
+      <c r="AW2" s="1">
+        <v>46</v>
+      </c>
+      <c r="AX2" s="1">
+        <v>47</v>
+      </c>
+      <c r="AY2" s="1">
+        <v>48</v>
+      </c>
+      <c r="AZ2" s="1">
+        <v>49</v>
+      </c>
+      <c r="BA2" s="1">
+        <v>50</v>
+      </c>
+      <c r="BB2" s="1">
+        <v>51</v>
+      </c>
+      <c r="BC2" s="1">
+        <v>52</v>
+      </c>
+      <c r="BD2" s="1">
+        <v>53</v>
+      </c>
+      <c r="BE2" s="1">
+        <v>54</v>
+      </c>
+      <c r="BF2" s="1">
+        <v>55</v>
+      </c>
+      <c r="BG2" s="1">
+        <v>56</v>
+      </c>
+      <c r="BH2" s="1">
+        <v>57</v>
+      </c>
+      <c r="BI2" s="1">
+        <v>58</v>
+      </c>
+      <c r="BJ2" s="1">
+        <v>59</v>
+      </c>
+      <c r="BK2" s="1">
+        <v>60</v>
+      </c>
+      <c r="BL2" s="1">
+        <v>61</v>
+      </c>
+      <c r="BM2" s="1">
+        <v>62</v>
+      </c>
+      <c r="BN2" s="1">
+        <v>63</v>
+      </c>
+      <c r="BO2" s="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>-32</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>-31</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>-30</v>
+      </c>
+      <c r="B5" s="1">
+        <v>2</v>
+      </c>
+      <c r="AH5" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>-29</v>
+      </c>
+      <c r="B6" s="1">
+        <v>3</v>
+      </c>
+      <c r="AJ6" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>-28</v>
+      </c>
+      <c r="B7" s="1">
+        <v>4</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN7" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>-27</v>
+      </c>
+      <c r="B8" s="1">
+        <v>5</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>-26</v>
+      </c>
+      <c r="B9" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>-25</v>
+      </c>
+      <c r="B10" s="1">
+        <v>7</v>
+      </c>
+      <c r="AM10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BA10" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>-24</v>
+      </c>
+      <c r="B11" s="1">
+        <v>8</v>
+      </c>
+      <c r="AT11" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>-23</v>
+      </c>
+      <c r="B12" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>-22</v>
+      </c>
+      <c r="B13" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>-21</v>
+      </c>
+      <c r="B14" s="1">
+        <v>11</v>
+      </c>
+      <c r="AK14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AZ14" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>-20</v>
+      </c>
+      <c r="B15" s="1">
+        <v>12</v>
+      </c>
+      <c r="AZ15" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>-19</v>
+      </c>
+      <c r="B16" s="1">
+        <v>13</v>
+      </c>
+      <c r="Y16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>-18</v>
+      </c>
+      <c r="B17" s="1">
+        <v>14</v>
+      </c>
+      <c r="AW17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BH17" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>-17</v>
+      </c>
+      <c r="B18" s="1">
+        <v>15</v>
+      </c>
+      <c r="BC18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BD18" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>-16</v>
+      </c>
+      <c r="B19" s="1">
+        <v>16</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>-15</v>
+      </c>
+      <c r="B20" s="1">
+        <v>17</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AU20" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>-14</v>
+      </c>
+      <c r="B21" s="1">
+        <v>18</v>
+      </c>
+      <c r="AD21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BA21" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>-13</v>
+      </c>
+      <c r="B22" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>-12</v>
+      </c>
+      <c r="B23" s="1">
+        <v>20</v>
+      </c>
+      <c r="V23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AX23" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>-11</v>
+      </c>
+      <c r="B24" s="1">
+        <v>21</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BG24" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>-10</v>
+      </c>
+      <c r="B25" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>-9</v>
+      </c>
+      <c r="B26" s="1">
+        <v>23</v>
+      </c>
+      <c r="AG26" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>-8</v>
+      </c>
+      <c r="B27" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>-7</v>
+      </c>
+      <c r="B28" s="1">
+        <v>25</v>
+      </c>
+      <c r="BH28" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>-6</v>
+      </c>
+      <c r="B29" s="1">
+        <v>26</v>
+      </c>
+      <c r="AD29" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>-5</v>
+      </c>
+      <c r="B30" s="1">
+        <v>27</v>
+      </c>
+      <c r="Z30" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BK30" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>-4</v>
+      </c>
+      <c r="B31" s="1">
+        <v>28</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BH31" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>-3</v>
+      </c>
+      <c r="B32" s="1">
+        <v>29</v>
+      </c>
+      <c r="AB32" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>-2</v>
+      </c>
+      <c r="B33" s="1">
+        <v>30</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BD33" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>-1</v>
+      </c>
+      <c r="B34" s="1">
+        <v>31</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>0</v>
+      </c>
+      <c r="B35" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>1</v>
+      </c>
+      <c r="B36" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="37" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>2</v>
+      </c>
+      <c r="B37" s="1">
+        <v>34</v>
+      </c>
+      <c r="AR37" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>3</v>
+      </c>
+      <c r="B38" s="1">
+        <v>35</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE38" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>4</v>
+      </c>
+      <c r="B39" s="1">
+        <v>36</v>
+      </c>
+      <c r="M39" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF39" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>5</v>
+      </c>
+      <c r="B40" s="1">
+        <v>37</v>
+      </c>
+      <c r="P40" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S40" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="V40" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AO40" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AW40" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>6</v>
+      </c>
+      <c r="B41" s="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="42" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>7</v>
+      </c>
+      <c r="B42" s="1">
+        <v>39</v>
+      </c>
+      <c r="AL42" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>8</v>
+      </c>
+      <c r="B43" s="1">
+        <v>40</v>
+      </c>
+      <c r="U43" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="V43" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>9</v>
+      </c>
+      <c r="B44" s="1">
+        <v>41</v>
+      </c>
+      <c r="AN44" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BB44" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BO44" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>10</v>
+      </c>
+      <c r="B45" s="1">
+        <v>42</v>
+      </c>
+      <c r="AX45" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BB45" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>11</v>
+      </c>
+      <c r="B46" s="1">
+        <v>43</v>
+      </c>
+      <c r="L46" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>12</v>
+      </c>
+      <c r="B47" s="1">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="48" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>13</v>
+      </c>
+      <c r="B48" s="1">
+        <v>45</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA48" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD48" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AU48" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>14</v>
+      </c>
+      <c r="B49" s="1">
+        <v>46</v>
+      </c>
+      <c r="AA49" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>15</v>
+      </c>
+      <c r="B50" s="1">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="51" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>16</v>
+      </c>
+      <c r="B51" s="1">
+        <v>48</v>
+      </c>
+      <c r="AD51" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BK51" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>17</v>
+      </c>
+      <c r="B52" s="1">
+        <v>49</v>
+      </c>
+      <c r="N52" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>18</v>
+      </c>
+      <c r="B53" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="54" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>19</v>
+      </c>
+      <c r="B54" s="1">
+        <v>51</v>
+      </c>
+      <c r="AD54" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>20</v>
+      </c>
+      <c r="B55" s="1">
+        <v>52</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>21</v>
+      </c>
+      <c r="B56" s="1">
+        <v>53</v>
+      </c>
+      <c r="R56" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>22</v>
+      </c>
+      <c r="B57" s="1">
+        <v>54</v>
+      </c>
+      <c r="AE57" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>23</v>
+      </c>
+      <c r="B58" s="1">
+        <v>55</v>
+      </c>
+      <c r="V58" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="X58" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BJ58" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>24</v>
+      </c>
+      <c r="B59" s="1">
+        <v>56</v>
+      </c>
+      <c r="AK59" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AY59" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>25</v>
+      </c>
+      <c r="B60" s="1">
+        <v>57</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>26</v>
+      </c>
+      <c r="B61" s="1">
+        <v>58</v>
+      </c>
+      <c r="AJ61" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM61" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AX61" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>27</v>
+      </c>
+      <c r="B62" s="1">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="63" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>28</v>
+      </c>
+      <c r="B63" s="1">
+        <v>60</v>
+      </c>
+      <c r="AM63" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>29</v>
+      </c>
+      <c r="B64" s="1">
+        <v>61</v>
+      </c>
+      <c r="AT64" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>30</v>
+      </c>
+      <c r="B65" s="1">
+        <v>62</v>
+      </c>
+      <c r="AJ65" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>31</v>
+      </c>
+      <c r="B66" s="1">
+        <v>63</v>
+      </c>
+      <c r="AF66" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BL66" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>32</v>
+      </c>
+      <c r="B67" s="1">
+        <v>64</v>
+      </c>
+      <c r="J67" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O67" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AT67" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="C73" s="1">
+        <v>-32</v>
+      </c>
+      <c r="D73" s="1">
+        <v>-31</v>
+      </c>
+      <c r="E73" s="1">
+        <v>-30</v>
+      </c>
+      <c r="F73" s="1">
+        <v>-29</v>
+      </c>
+      <c r="G73" s="1">
+        <v>-28</v>
+      </c>
+      <c r="H73" s="1">
+        <v>-27</v>
+      </c>
+      <c r="I73" s="1">
+        <v>-26</v>
+      </c>
+      <c r="J73" s="1">
+        <v>-25</v>
+      </c>
+      <c r="K73" s="1">
+        <v>-24</v>
+      </c>
+      <c r="L73" s="1">
+        <v>-23</v>
+      </c>
+      <c r="M73" s="1">
+        <v>-22</v>
+      </c>
+      <c r="N73" s="1">
+        <v>-21</v>
+      </c>
+      <c r="O73" s="1">
+        <v>-20</v>
+      </c>
+      <c r="P73" s="1">
+        <v>-19</v>
+      </c>
+      <c r="Q73" s="1">
+        <v>-18</v>
+      </c>
+      <c r="R73" s="1">
+        <v>-17</v>
+      </c>
+      <c r="S73" s="1">
+        <v>-16</v>
+      </c>
+      <c r="T73" s="1">
+        <v>-15</v>
+      </c>
+      <c r="U73" s="1">
+        <v>-14</v>
+      </c>
+      <c r="V73" s="1">
+        <v>-13</v>
+      </c>
+      <c r="W73" s="1">
+        <v>-12</v>
+      </c>
+      <c r="X73" s="1">
+        <v>-11</v>
+      </c>
+      <c r="Y73" s="1">
+        <v>-10</v>
+      </c>
+      <c r="Z73" s="1">
+        <v>-9</v>
+      </c>
+      <c r="AA73" s="1">
+        <v>-8</v>
+      </c>
+      <c r="AB73" s="1">
+        <v>-7</v>
+      </c>
+      <c r="AC73" s="1">
+        <v>-6</v>
+      </c>
+      <c r="AD73" s="1">
+        <v>-5</v>
+      </c>
+      <c r="AE73" s="1">
+        <v>-4</v>
+      </c>
+      <c r="AF73" s="1">
+        <v>-3</v>
+      </c>
+      <c r="AG73" s="1">
+        <v>-2</v>
+      </c>
+      <c r="AH73" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AI73" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ73" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK73" s="1">
+        <v>2</v>
+      </c>
+      <c r="AL73" s="1">
+        <v>3</v>
+      </c>
+      <c r="AM73" s="1">
+        <v>4</v>
+      </c>
+      <c r="AN73" s="1">
+        <v>5</v>
+      </c>
+      <c r="AO73" s="1">
+        <v>6</v>
+      </c>
+      <c r="AP73" s="1">
+        <v>7</v>
+      </c>
+      <c r="AQ73" s="1">
+        <v>8</v>
+      </c>
+      <c r="AR73" s="1">
+        <v>9</v>
+      </c>
+      <c r="AS73" s="1">
+        <v>10</v>
+      </c>
+      <c r="AT73" s="1">
+        <v>11</v>
+      </c>
+      <c r="AU73" s="1">
+        <v>12</v>
+      </c>
+      <c r="AV73" s="1">
+        <v>13</v>
+      </c>
+      <c r="AW73" s="1">
+        <v>14</v>
+      </c>
+      <c r="AX73" s="1">
+        <v>15</v>
+      </c>
+      <c r="AY73" s="1">
+        <v>16</v>
+      </c>
+      <c r="AZ73" s="1">
+        <v>17</v>
+      </c>
+      <c r="BA73" s="1">
+        <v>18</v>
+      </c>
+      <c r="BB73" s="1">
+        <v>19</v>
+      </c>
+      <c r="BC73" s="1">
+        <v>20</v>
+      </c>
+      <c r="BD73" s="1">
+        <v>21</v>
+      </c>
+      <c r="BE73" s="1">
+        <v>22</v>
+      </c>
+      <c r="BF73" s="1">
+        <v>23</v>
+      </c>
+      <c r="BG73" s="1">
+        <v>24</v>
+      </c>
+      <c r="BH73" s="1">
+        <v>25</v>
+      </c>
+      <c r="BI73" s="1">
+        <v>26</v>
+      </c>
+      <c r="BJ73" s="1">
+        <v>27</v>
+      </c>
+      <c r="BK73" s="1">
+        <v>28</v>
+      </c>
+      <c r="BL73" s="1">
+        <v>29</v>
+      </c>
+      <c r="BM73" s="1">
+        <v>30</v>
+      </c>
+      <c r="BN73" s="1">
+        <v>31</v>
+      </c>
+      <c r="BO73" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="74" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="C74" s="1">
+        <v>0</v>
+      </c>
+      <c r="D74" s="1">
+        <v>1</v>
+      </c>
+      <c r="E74" s="1">
+        <v>2</v>
+      </c>
+      <c r="F74" s="1">
+        <v>3</v>
+      </c>
+      <c r="G74" s="1">
+        <v>4</v>
+      </c>
+      <c r="H74" s="1">
+        <v>5</v>
+      </c>
+      <c r="I74" s="1">
+        <v>6</v>
+      </c>
+      <c r="J74" s="1">
+        <v>7</v>
+      </c>
+      <c r="K74" s="1">
+        <v>8</v>
+      </c>
+      <c r="L74" s="1">
+        <v>9</v>
+      </c>
+      <c r="M74" s="1">
+        <v>10</v>
+      </c>
+      <c r="N74" s="1">
+        <v>11</v>
+      </c>
+      <c r="O74" s="1">
+        <v>12</v>
+      </c>
+      <c r="P74" s="1">
+        <v>13</v>
+      </c>
+      <c r="Q74" s="1">
+        <v>14</v>
+      </c>
+      <c r="R74" s="1">
+        <v>15</v>
+      </c>
+      <c r="S74" s="1">
+        <v>16</v>
+      </c>
+      <c r="T74" s="1">
+        <v>17</v>
+      </c>
+      <c r="U74" s="1">
+        <v>18</v>
+      </c>
+      <c r="V74" s="1">
+        <v>19</v>
+      </c>
+      <c r="W74" s="1">
+        <v>20</v>
+      </c>
+      <c r="X74" s="1">
+        <v>21</v>
+      </c>
+      <c r="Y74" s="1">
+        <v>22</v>
+      </c>
+      <c r="Z74" s="1">
+        <v>23</v>
+      </c>
+      <c r="AA74" s="1">
+        <v>24</v>
+      </c>
+      <c r="AB74" s="1">
+        <v>25</v>
+      </c>
+      <c r="AC74" s="1">
+        <v>26</v>
+      </c>
+      <c r="AD74" s="1">
+        <v>27</v>
+      </c>
+      <c r="AE74" s="1">
+        <v>28</v>
+      </c>
+      <c r="AF74" s="1">
+        <v>29</v>
+      </c>
+      <c r="AG74" s="1">
+        <v>30</v>
+      </c>
+      <c r="AH74" s="1">
+        <v>31</v>
+      </c>
+      <c r="AI74" s="1">
+        <v>32</v>
+      </c>
+      <c r="AJ74" s="1">
+        <v>33</v>
+      </c>
+      <c r="AK74" s="1">
+        <v>34</v>
+      </c>
+      <c r="AL74" s="1">
+        <v>35</v>
+      </c>
+      <c r="AM74" s="1">
+        <v>36</v>
+      </c>
+      <c r="AN74" s="1">
+        <v>37</v>
+      </c>
+      <c r="AO74" s="1">
+        <v>38</v>
+      </c>
+      <c r="AP74" s="1">
+        <v>39</v>
+      </c>
+      <c r="AQ74" s="1">
+        <v>40</v>
+      </c>
+      <c r="AR74" s="1">
+        <v>41</v>
+      </c>
+      <c r="AS74" s="1">
+        <v>42</v>
+      </c>
+      <c r="AT74" s="1">
+        <v>43</v>
+      </c>
+      <c r="AU74" s="1">
+        <v>44</v>
+      </c>
+      <c r="AV74" s="1">
+        <v>45</v>
+      </c>
+      <c r="AW74" s="1">
+        <v>46</v>
+      </c>
+      <c r="AX74" s="1">
+        <v>47</v>
+      </c>
+      <c r="AY74" s="1">
+        <v>48</v>
+      </c>
+      <c r="AZ74" s="1">
+        <v>49</v>
+      </c>
+      <c r="BA74" s="1">
+        <v>50</v>
+      </c>
+      <c r="BB74" s="1">
+        <v>51</v>
+      </c>
+      <c r="BC74" s="1">
+        <v>52</v>
+      </c>
+      <c r="BD74" s="1">
+        <v>53</v>
+      </c>
+      <c r="BE74" s="1">
+        <v>54</v>
+      </c>
+      <c r="BF74" s="1">
+        <v>55</v>
+      </c>
+      <c r="BG74" s="1">
+        <v>56</v>
+      </c>
+      <c r="BH74" s="1">
+        <v>57</v>
+      </c>
+      <c r="BI74" s="1">
+        <v>58</v>
+      </c>
+      <c r="BJ74" s="1">
+        <v>59</v>
+      </c>
+      <c r="BK74" s="1">
+        <v>60</v>
+      </c>
+      <c r="BL74" s="1">
+        <v>61</v>
+      </c>
+      <c r="BM74" s="1">
+        <v>62</v>
+      </c>
+      <c r="BN74" s="1">
+        <v>63</v>
+      </c>
+      <c r="BO74" s="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="75" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <v>-32</v>
+      </c>
+      <c r="B75" s="1">
+        <v>0</v>
+      </c>
+      <c r="X75" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BC75" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BH75" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
+        <v>-31</v>
+      </c>
+      <c r="B76" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL76" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
+        <v>-30</v>
+      </c>
+      <c r="B77" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
+        <v>-29</v>
+      </c>
+      <c r="B78" s="1">
+        <v>3</v>
+      </c>
+      <c r="X78" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
+        <v>-28</v>
+      </c>
+      <c r="B79" s="1">
+        <v>4</v>
+      </c>
+      <c r="AE79" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
+        <v>-27</v>
+      </c>
+      <c r="B80" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
+        <v>-26</v>
+      </c>
+      <c r="B81" s="1">
+        <v>6</v>
+      </c>
+      <c r="T81" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE81" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH81" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
+        <v>-25</v>
+      </c>
+      <c r="B82" s="1">
+        <v>7</v>
+      </c>
+      <c r="BO82" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
+        <v>-24</v>
+      </c>
+      <c r="B83" s="1">
+        <v>8</v>
+      </c>
+      <c r="S83" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG83" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AV83" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
+        <v>-23</v>
+      </c>
+      <c r="B84" s="1">
+        <v>9</v>
+      </c>
+      <c r="H84" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AT84" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
+        <v>-22</v>
+      </c>
+      <c r="B85" s="1">
+        <v>10</v>
+      </c>
+      <c r="AM85" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
+        <v>-21</v>
+      </c>
+      <c r="B86" s="1">
+        <v>11</v>
+      </c>
+      <c r="AZ86" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
+        <v>-20</v>
+      </c>
+      <c r="B87" s="1">
+        <v>12</v>
+      </c>
+      <c r="BO87" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
+        <v>-19</v>
+      </c>
+      <c r="B88" s="1">
+        <v>13</v>
+      </c>
+      <c r="AN88" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
+        <v>-18</v>
+      </c>
+      <c r="B89" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="90" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
+        <v>-17</v>
+      </c>
+      <c r="B90" s="1">
+        <v>15</v>
+      </c>
+      <c r="BD90" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="A91" s="1">
+        <v>-16</v>
+      </c>
+      <c r="B91" s="1">
+        <v>16</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN91" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="A92" s="1">
+        <v>-15</v>
+      </c>
+      <c r="B92" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="93" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
+        <v>-14</v>
+      </c>
+      <c r="B93" s="1">
+        <v>18</v>
+      </c>
+      <c r="AQ93" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="A94" s="1">
+        <v>-13</v>
+      </c>
+      <c r="B94" s="1">
+        <v>19</v>
+      </c>
+      <c r="W94" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN94" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AQ94" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BF94" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="A95" s="1">
+        <v>-12</v>
+      </c>
+      <c r="B95" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="96" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="A96" s="1">
+        <v>-11</v>
+      </c>
+      <c r="B96" s="1">
+        <v>21</v>
+      </c>
+      <c r="BF96" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="A97" s="1">
+        <v>-10</v>
+      </c>
+      <c r="B97" s="1">
+        <v>22</v>
+      </c>
+      <c r="P97" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T97" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="A98" s="1">
+        <v>-9</v>
+      </c>
+      <c r="B98" s="1">
+        <v>23</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P98" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD98" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="A99" s="1">
+        <v>-8</v>
+      </c>
+      <c r="B99" s="1">
+        <v>24</v>
+      </c>
+      <c r="AV99" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AW99" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="A100" s="1">
+        <v>-7</v>
+      </c>
+      <c r="B100" s="1">
+        <v>25</v>
+      </c>
+      <c r="AF100" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="A101" s="1">
+        <v>-6</v>
+      </c>
+      <c r="B101" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="102" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="A102" s="1">
+        <v>-5</v>
+      </c>
+      <c r="B102" s="1">
+        <v>27</v>
+      </c>
+      <c r="U102" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC102" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AV102" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AY102" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BB102" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="A103" s="1">
+        <v>-4</v>
+      </c>
+      <c r="B103" s="1">
+        <v>28</v>
+      </c>
+      <c r="AL103" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BE103" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="A104" s="1">
+        <v>-3</v>
+      </c>
+      <c r="B104" s="1">
+        <v>29</v>
+      </c>
+      <c r="AM104" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BN104" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="A105" s="1">
+        <v>-2</v>
+      </c>
+      <c r="B105" s="1">
+        <v>30</v>
+      </c>
+      <c r="Z105" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="A106" s="1">
+        <v>-1</v>
+      </c>
+      <c r="B106" s="1">
+        <v>31</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="A107" s="1">
+        <v>0</v>
+      </c>
+      <c r="B107" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="108" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="A108" s="1">
+        <v>1</v>
+      </c>
+      <c r="B108" s="1">
+        <v>33</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BI108" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BM108" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="A109" s="1">
+        <v>2</v>
+      </c>
+      <c r="B109" s="1">
+        <v>34</v>
+      </c>
+      <c r="N109" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BG109" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="A110" s="1">
+        <v>3</v>
+      </c>
+      <c r="B110" s="1">
+        <v>35</v>
+      </c>
+      <c r="AP110" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="A111" s="1">
+        <v>4</v>
+      </c>
+      <c r="B111" s="1">
+        <v>36</v>
+      </c>
+      <c r="J111" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BI111" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BK111" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="A112" s="1">
+        <v>5</v>
+      </c>
+      <c r="B112" s="1">
+        <v>37</v>
+      </c>
+      <c r="G112" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AR112" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="A113" s="1">
+        <v>6</v>
+      </c>
+      <c r="B113" s="1">
+        <v>38</v>
+      </c>
+      <c r="AN113" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="A114" s="1">
+        <v>7</v>
+      </c>
+      <c r="B114" s="1">
+        <v>39</v>
+      </c>
+      <c r="J114" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="A115" s="1">
+        <v>8</v>
+      </c>
+      <c r="B115" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="116" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="A116" s="1">
+        <v>9</v>
+      </c>
+      <c r="B116" s="1">
+        <v>41</v>
+      </c>
+      <c r="AK116" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="A117" s="1">
+        <v>10</v>
+      </c>
+      <c r="B117" s="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="118" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="A118" s="1">
+        <v>11</v>
+      </c>
+      <c r="B118" s="1">
+        <v>43</v>
+      </c>
+      <c r="K118" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BL118" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BO118" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="A119" s="1">
+        <v>12</v>
+      </c>
+      <c r="B119" s="1">
+        <v>44</v>
+      </c>
+      <c r="T119" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AV119" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="A120" s="1">
+        <v>13</v>
+      </c>
+      <c r="B120" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="121" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="A121" s="1">
+        <v>14</v>
+      </c>
+      <c r="B121" s="1">
+        <v>46</v>
+      </c>
+      <c r="Q121" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN121" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="A122" s="1">
+        <v>15</v>
+      </c>
+      <c r="B122" s="1">
+        <v>47</v>
+      </c>
+      <c r="W122" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AS122" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BI122" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="A123" s="1">
+        <v>16</v>
+      </c>
+      <c r="B123" s="1">
+        <v>48</v>
+      </c>
+      <c r="BG123" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="A124" s="1">
+        <v>17</v>
+      </c>
+      <c r="B124" s="1">
+        <v>49</v>
+      </c>
+      <c r="N124" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O124" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="A125" s="1">
+        <v>18</v>
+      </c>
+      <c r="B125" s="1">
+        <v>50</v>
+      </c>
+      <c r="J125" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="U125" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="A126" s="1">
+        <v>19</v>
+      </c>
+      <c r="B126" s="1">
+        <v>51</v>
+      </c>
+      <c r="AR126" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AS126" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="A127" s="1">
+        <v>20</v>
+      </c>
+      <c r="B127" s="1">
+        <v>52</v>
+      </c>
+      <c r="R127" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="A128" s="1">
+        <v>21</v>
+      </c>
+      <c r="B128" s="1">
+        <v>53</v>
+      </c>
+      <c r="R128" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG128" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="A129" s="1">
+        <v>22</v>
+      </c>
+      <c r="B129" s="1">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="130" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="A130" s="1">
+        <v>23</v>
+      </c>
+      <c r="B130" s="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="131" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="A131" s="1">
+        <v>24</v>
+      </c>
+      <c r="B131" s="1">
+        <v>56</v>
+      </c>
+      <c r="X131" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="A132" s="1">
+        <v>25</v>
+      </c>
+      <c r="B132" s="1">
+        <v>57</v>
+      </c>
+      <c r="Q132" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB132" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE132" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="A133" s="1">
+        <v>26</v>
+      </c>
+      <c r="B133" s="1">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="134" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="A134" s="1">
+        <v>27</v>
+      </c>
+      <c r="B134" s="1">
+        <v>59</v>
+      </c>
+      <c r="BF134" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="A135" s="1">
+        <v>28</v>
+      </c>
+      <c r="B135" s="1">
+        <v>60</v>
+      </c>
+      <c r="AD135" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AY135" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="A136" s="1">
+        <v>29</v>
+      </c>
+      <c r="B136" s="1">
+        <v>61</v>
+      </c>
+      <c r="BN136" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="A137" s="1">
+        <v>30</v>
+      </c>
+      <c r="B137" s="1">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="138" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="A138" s="1">
+        <v>31</v>
+      </c>
+      <c r="B138" s="1">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="139" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="A139" s="1">
+        <v>32</v>
+      </c>
+      <c r="B139" s="1">
+        <v>64</v>
+      </c>
+      <c r="AR139" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BE124"/>
   <sheetViews>
